--- a/RuoYi/sql/数据库20200524.xlsx
+++ b/RuoYi/sql/数据库20200524.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihongming/Documents/dajiaokj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihongming/Documents/dajiaokj/backgroud/RuoYi/sql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D12EB69-FB3F-7144-9750-9D7EF94983E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8535ED-D188-9A49-A2D2-834AF391FD77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="23280" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="460" windowWidth="23280" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员管理" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="970">
   <si>
     <t>meb_account</t>
   </si>
@@ -4322,6 +4322,14 @@
   <si>
     <t>1有效 0失效</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>idatetime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4829,19 +4837,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4851,6 +4863,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4871,19 +4892,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5166,8 +5174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="G313" sqref="G313"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -5190,14 +5198,14 @@
       <c r="A2" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="89" t="s">
         <v>897</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="49" t="str">
         <f>CONCATENATE("CREATE TABLE `",A2,"` (")</f>
         <v>CREATE TABLE `set_datacity` (</v>
@@ -5723,14 +5731,14 @@
       <c r="A18" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="75" t="str">
         <f>CONCATENATE("CREATE TABLE `",A18,"` (")</f>
         <v>CREATE TABLE `set_databank` (</v>
@@ -6241,14 +6249,14 @@
       <c r="A30" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="84" t="s">
         <v>898</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
       <c r="H30" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A30,"` (")</f>
         <v>CREATE TABLE `meb_account` (</v>
@@ -6698,7 +6706,7 @@
         <v>397</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -6706,7 +6714,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="36" t="str">
         <f t="shared" si="9"/>
-        <v>`regtime` int(11) DEFAULT NULL COMMENT '注册时间',</v>
+        <v>`regtime` datetime DEFAULT NULL COMMENT '注册时间',</v>
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
@@ -6805,7 +6813,7 @@
         <v>125</v>
       </c>
       <c r="D41" s="30"/>
-      <c r="E41" s="96" t="s">
+      <c r="E41" s="82" t="s">
         <v>146</v>
       </c>
       <c r="F41" s="30"/>
@@ -7078,7 +7086,7 @@
         <v>435</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
@@ -7086,7 +7094,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="36" t="str">
         <f t="shared" si="9"/>
-        <v>`lastlogintime` int(11) DEFAULT NULL COMMENT '最后登录时间',</v>
+        <v>`lastlogintime` datetime DEFAULT NULL COMMENT '最后登录时间',</v>
       </c>
       <c r="I46" s="36"/>
       <c r="J46" s="36"/>
@@ -7771,14 +7779,14 @@
       <c r="A61" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="B61" s="78" t="s">
+      <c r="B61" s="84" t="s">
         <v>900</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A61,"` (")</f>
         <v>CREATE TABLE `meb_accthird` (</v>
@@ -8334,7 +8342,7 @@
         <v>163</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -8342,7 +8350,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '创建时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '创建时间',</v>
       </c>
       <c r="I72" s="36"/>
       <c r="J72" s="36"/>
@@ -8693,14 +8701,14 @@
       <c r="A81" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="83" t="s">
         <v>616</v>
       </c>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
       <c r="H81" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A81,"` (")</f>
         <v>CREATE TABLE `meb_info` (</v>
@@ -9210,7 +9218,7 @@
         <v>575</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D91" s="57"/>
       <c r="E91" s="36"/>
@@ -9218,7 +9226,7 @@
       <c r="G91" s="57"/>
       <c r="H91" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>`authpertime` int(11) DEFAULT NULL COMMENT '实名认证时间',</v>
+        <v>`authpertime` datetime DEFAULT NULL COMMENT '实名认证时间',</v>
       </c>
       <c r="I91" s="59"/>
       <c r="J91" s="36"/>
@@ -9724,14 +9732,14 @@
       <c r="A103" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="83" t="s">
         <v>675</v>
       </c>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="78"/>
+      <c r="C103" s="84"/>
+      <c r="D103" s="84"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="84"/>
+      <c r="G103" s="84"/>
       <c r="H103" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A103,"` (")</f>
         <v>CREATE TABLE `meb_authname` (</v>
@@ -10443,7 +10451,7 @@
         <v>662</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D117" s="25"/>
       <c r="E117" s="25"/>
@@ -10451,7 +10459,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '提交时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '提交时间',</v>
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="36"/>
@@ -10547,7 +10555,7 @@
         <v>669</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
@@ -10555,7 +10563,7 @@
       <c r="G119" s="66"/>
       <c r="H119" s="26" t="str">
         <f t="shared" si="22"/>
-        <v>`audittime` int(11) DEFAULT NULL COMMENT '审核时间',</v>
+        <v>`audittime` datetime DEFAULT NULL COMMENT '审核时间',</v>
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="24"/>
@@ -10770,14 +10778,14 @@
       <c r="A125" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="B125" s="79" t="s">
+      <c r="B125" s="83" t="s">
         <v>902</v>
       </c>
-      <c r="C125" s="78"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
+      <c r="C125" s="84"/>
+      <c r="D125" s="84"/>
+      <c r="E125" s="84"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="84"/>
       <c r="H125" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A125,"` (")</f>
         <v>CREATE TABLE `meb_addrlist` (</v>
@@ -11277,7 +11285,7 @@
         <v>163</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D135" s="27"/>
       <c r="E135" s="27"/>
@@ -11285,7 +11293,7 @@
       <c r="G135" s="34"/>
       <c r="H135" s="26" t="str">
         <f t="shared" si="27"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '创建时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '创建时间',</v>
       </c>
       <c r="I135" s="24"/>
       <c r="J135" s="24"/>
@@ -11381,7 +11389,7 @@
         <v>695</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="35"/>
@@ -11389,7 +11397,7 @@
       <c r="G137" s="35"/>
       <c r="H137" s="26" t="str">
         <f t="shared" si="27"/>
-        <v>`updatetime` int(11) DEFAULT NULL COMMENT '最后编辑时间',</v>
+        <v>`updatetime` datetime DEFAULT NULL COMMENT '最后编辑时间',</v>
       </c>
       <c r="I137" s="24"/>
       <c r="J137" s="24"/>
@@ -11684,14 +11692,14 @@
       <c r="A145" s="47" t="s">
         <v>707</v>
       </c>
-      <c r="B145" s="78" t="s">
+      <c r="B145" s="84" t="s">
         <v>708</v>
       </c>
-      <c r="C145" s="78"/>
-      <c r="D145" s="78"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
+      <c r="C145" s="84"/>
+      <c r="D145" s="84"/>
+      <c r="E145" s="84"/>
+      <c r="F145" s="84"/>
+      <c r="G145" s="84"/>
       <c r="H145" s="75" t="str">
         <f>CONCATENATE("CREATE TABLE `",A145,"` (")</f>
         <v>CREATE TABLE `meb_loginlog` (</v>
@@ -12322,14 +12330,14 @@
       <c r="A163" s="21" t="s">
         <v>731</v>
       </c>
-      <c r="B163" s="80" t="s">
+      <c r="B163" s="88" t="s">
         <v>768</v>
       </c>
-      <c r="C163" s="80"/>
-      <c r="D163" s="80"/>
-      <c r="E163" s="80"/>
-      <c r="F163" s="80"/>
-      <c r="G163" s="80"/>
+      <c r="C163" s="88"/>
+      <c r="D163" s="88"/>
+      <c r="E163" s="88"/>
+      <c r="F163" s="88"/>
+      <c r="G163" s="88"/>
       <c r="H163" s="75" t="str">
         <f>CONCATENATE("CREATE TABLE `",A163,"` (")</f>
         <v>CREATE TABLE `meb_applog` (</v>
@@ -12617,7 +12625,7 @@
         <v>163</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D169" s="25"/>
       <c r="E169" s="25"/>
@@ -12627,7 +12635,7 @@
       </c>
       <c r="H169" s="26" t="str">
         <f t="shared" si="33"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '创建时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '创建时间',</v>
       </c>
       <c r="I169" s="24"/>
       <c r="J169" s="24"/>
@@ -12671,7 +12679,7 @@
         <v>712</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D170" s="25"/>
       <c r="E170" s="25"/>
@@ -12681,7 +12689,7 @@
       </c>
       <c r="H170" s="26" t="str">
         <f t="shared" si="33"/>
-        <v>`logintime` int(11) DEFAULT NULL COMMENT '登录时间',</v>
+        <v>`logintime` datetime DEFAULT NULL COMMENT '登录时间',</v>
       </c>
       <c r="I170" s="24"/>
       <c r="J170" s="24"/>
@@ -13086,14 +13094,14 @@
       <c r="A180" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="B180" s="79" t="s">
+      <c r="B180" s="83" t="s">
         <v>788</v>
       </c>
-      <c r="C180" s="78"/>
-      <c r="D180" s="78"/>
-      <c r="E180" s="78"/>
-      <c r="F180" s="78"/>
-      <c r="G180" s="78"/>
+      <c r="C180" s="84"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="84"/>
       <c r="H180" s="75" t="str">
         <f>CONCATENATE("CREATE TABLE `",A180,"` (")</f>
         <v>CREATE TABLE `meb_phonerd` (</v>
@@ -13379,7 +13387,7 @@
         <v>780</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D186" s="25"/>
       <c r="E186" s="25"/>
@@ -13387,7 +13395,7 @@
       <c r="G186" s="37"/>
       <c r="H186" s="36" t="str">
         <f t="shared" si="38"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '发生时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '发生时间',</v>
       </c>
       <c r="I186" s="36"/>
       <c r="J186" s="36"/>
@@ -13431,7 +13439,7 @@
         <v>139</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D187" s="25"/>
       <c r="E187" s="25"/>
@@ -13439,7 +13447,7 @@
       <c r="G187" s="37"/>
       <c r="H187" s="36" t="str">
         <f t="shared" si="38"/>
-        <v>`updatetime` int(11) DEFAULT NULL COMMENT '完成时间',</v>
+        <v>`updatetime` datetime DEFAULT NULL COMMENT '完成时间',</v>
       </c>
       <c r="I187" s="36"/>
       <c r="J187" s="36"/>
@@ -13738,14 +13746,14 @@
       <c r="A195" s="47" t="s">
         <v>608</v>
       </c>
-      <c r="B195" s="79" t="s">
+      <c r="B195" s="83" t="s">
         <v>838</v>
       </c>
-      <c r="C195" s="78"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="78"/>
-      <c r="G195" s="78"/>
+      <c r="C195" s="84"/>
+      <c r="D195" s="84"/>
+      <c r="E195" s="84"/>
+      <c r="F195" s="84"/>
+      <c r="G195" s="84"/>
       <c r="H195" s="75" t="str">
         <f>CONCATENATE("CREATE TABLE `",A195,"` (")</f>
         <v>CREATE TABLE `meb_bankbind` (</v>
@@ -14457,7 +14465,7 @@
         <v>163</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D209" s="25"/>
       <c r="E209" s="25"/>
@@ -14465,7 +14473,7 @@
       <c r="G209" s="34"/>
       <c r="H209" s="26" t="str">
         <f t="shared" si="43"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '创建时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '创建时间',</v>
       </c>
       <c r="I209" s="36"/>
       <c r="J209" s="24"/>
@@ -14561,7 +14569,7 @@
         <v>695</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D211" s="57"/>
       <c r="E211" s="57"/>
@@ -14569,7 +14577,7 @@
       <c r="G211" s="57"/>
       <c r="H211" s="26" t="str">
         <f t="shared" si="43"/>
-        <v>`updatetime` int(11) DEFAULT NULL COMMENT '最后编辑时间',</v>
+        <v>`updatetime` datetime DEFAULT NULL COMMENT '最后编辑时间',</v>
       </c>
       <c r="I211" s="36"/>
       <c r="J211" s="24"/>
@@ -14836,14 +14844,14 @@
       <c r="A218" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="B218" s="78" t="s">
+      <c r="B218" s="84" t="s">
         <v>840</v>
       </c>
-      <c r="C218" s="82"/>
-      <c r="D218" s="82"/>
-      <c r="E218" s="82"/>
-      <c r="F218" s="82"/>
-      <c r="G218" s="83"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="86"/>
+      <c r="E218" s="86"/>
+      <c r="F218" s="86"/>
+      <c r="G218" s="87"/>
       <c r="H218" s="75" t="str">
         <f>CONCATENATE("CREATE TABLE `",A218,"` (")</f>
         <v>CREATE TABLE `meb_friend` (</v>
@@ -15077,7 +15085,7 @@
         <v>163</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D223" s="25"/>
       <c r="E223" s="25"/>
@@ -15085,7 +15093,7 @@
       <c r="G223" s="34"/>
       <c r="H223" s="26" t="str">
         <f>CONCATENATE("`",A223,"` ",C223," DEFAULT NULL COMMENT ","'",B223,"',")</f>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '创建时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '创建时间',</v>
       </c>
       <c r="I223" s="24"/>
       <c r="J223" s="24"/>
@@ -15380,14 +15388,14 @@
       <c r="A231" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="B231" s="80" t="s">
+      <c r="B231" s="88" t="s">
         <v>856</v>
       </c>
-      <c r="C231" s="78"/>
-      <c r="D231" s="78"/>
-      <c r="E231" s="78"/>
-      <c r="F231" s="78"/>
-      <c r="G231" s="78"/>
+      <c r="C231" s="84"/>
+      <c r="D231" s="84"/>
+      <c r="E231" s="84"/>
+      <c r="F231" s="84"/>
+      <c r="G231" s="84"/>
       <c r="H231" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A231,"` (")</f>
         <v>CREATE TABLE `meb_pointsrd` (</v>
@@ -15730,7 +15738,7 @@
         <v>780</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D240" s="25"/>
       <c r="E240" s="25"/>
@@ -15738,7 +15746,7 @@
       <c r="G240" s="37"/>
       <c r="H240" s="36" t="str">
         <f t="shared" si="49"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '发生时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '发生时间',</v>
       </c>
       <c r="I240" s="36"/>
       <c r="J240" s="36"/>
@@ -15986,14 +15994,14 @@
       <c r="A248" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="B248" s="80" t="s">
+      <c r="B248" s="88" t="s">
         <v>874</v>
       </c>
-      <c r="C248" s="78"/>
-      <c r="D248" s="78"/>
-      <c r="E248" s="78"/>
-      <c r="F248" s="78"/>
-      <c r="G248" s="78"/>
+      <c r="C248" s="84"/>
+      <c r="D248" s="84"/>
+      <c r="E248" s="84"/>
+      <c r="F248" s="84"/>
+      <c r="G248" s="84"/>
       <c r="H248" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A248,"` (")</f>
         <v>CREATE TABLE `meb_financelrd` (</v>
@@ -16297,7 +16305,7 @@
         <v>780</v>
       </c>
       <c r="C256" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D256" s="25"/>
       <c r="E256" s="25"/>
@@ -16305,7 +16313,7 @@
       <c r="G256" s="37"/>
       <c r="H256" s="36" t="str">
         <f t="shared" si="50"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '发生时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '发生时间',</v>
       </c>
       <c r="I256" s="36"/>
       <c r="J256" s="36"/>
@@ -16608,14 +16616,14 @@
       <c r="A265" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="B265" s="80" t="s">
+      <c r="B265" s="88" t="s">
         <v>883</v>
       </c>
-      <c r="C265" s="78"/>
-      <c r="D265" s="78"/>
-      <c r="E265" s="78"/>
-      <c r="F265" s="78"/>
-      <c r="G265" s="78"/>
+      <c r="C265" s="84"/>
+      <c r="D265" s="84"/>
+      <c r="E265" s="84"/>
+      <c r="F265" s="84"/>
+      <c r="G265" s="84"/>
       <c r="H265" s="26" t="str">
         <f>CONCATENATE("CREATE TABLE `",A265,"` (")</f>
         <v>CREATE TABLE `meb_financelcash` (</v>
@@ -17145,7 +17153,7 @@
         <v>891</v>
       </c>
       <c r="C279" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D279" s="25"/>
       <c r="E279" s="25"/>
@@ -17153,7 +17161,7 @@
       <c r="G279" s="37"/>
       <c r="H279" s="36" t="str">
         <f t="shared" si="51"/>
-        <v>`createtime` int(11) DEFAULT NULL COMMENT '申请时间',</v>
+        <v>`createtime` datetime DEFAULT NULL COMMENT '申请时间',</v>
       </c>
       <c r="I279" s="36"/>
       <c r="J279" s="36"/>
@@ -17181,8 +17189,8 @@
       <c r="B280" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="C280" s="25" t="s">
-        <v>607</v>
+      <c r="C280" s="74" t="s">
+        <v>151</v>
       </c>
       <c r="D280" s="25"/>
       <c r="E280" s="25"/>
@@ -17504,14 +17512,14 @@
       <c r="A289" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B289" s="81" t="s">
+      <c r="B289" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C289" s="81"/>
-      <c r="D289" s="81"/>
-      <c r="E289" s="81"/>
-      <c r="F289" s="81"/>
-      <c r="G289" s="81"/>
+      <c r="C289" s="85"/>
+      <c r="D289" s="85"/>
+      <c r="E289" s="85"/>
+      <c r="F289" s="85"/>
+      <c r="G289" s="85"/>
       <c r="H289" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A289,"` (")</f>
         <v>CREATE TABLE `meb_sigin_in` (</v>
@@ -17837,14 +17845,14 @@
       <c r="A305" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B305" s="81" t="s">
+      <c r="B305" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="C305" s="81"/>
-      <c r="D305" s="81"/>
-      <c r="E305" s="81"/>
-      <c r="F305" s="81"/>
-      <c r="G305" s="81"/>
+      <c r="C305" s="85"/>
+      <c r="D305" s="85"/>
+      <c r="E305" s="85"/>
+      <c r="F305" s="85"/>
+      <c r="G305" s="85"/>
       <c r="H305" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A305,"` (")</f>
         <v>CREATE TABLE `meb_vacation` (</v>
@@ -17975,7 +17983,7 @@
         <v>57</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -17983,7 +17991,7 @@
       <c r="G310" s="14"/>
       <c r="H310" s="1" t="str">
         <f t="shared" si="58"/>
-        <v>`starttime` int(11) DEFAULT NULL COMMENT '开始时间',</v>
+        <v>`starttime` datetime DEFAULT NULL COMMENT '开始时间',</v>
       </c>
     </row>
     <row r="311" spans="1:27" s="1" customFormat="1">
@@ -17994,7 +18002,7 @@
         <v>59</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -18002,7 +18010,7 @@
       <c r="G311" s="14"/>
       <c r="H311" s="1" t="str">
         <f t="shared" si="58"/>
-        <v>`endtime` int(11) DEFAULT NULL COMMENT '结束时间',</v>
+        <v>`endtime` datetime DEFAULT NULL COMMENT '结束时间',</v>
       </c>
     </row>
     <row r="312" spans="1:27" s="13" customFormat="1" ht="16">
@@ -18123,6 +18131,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B180:G180"/>
     <mergeCell ref="B195:G195"/>
     <mergeCell ref="B289:G289"/>
     <mergeCell ref="B305:G305"/>
@@ -18130,16 +18148,6 @@
     <mergeCell ref="B231:G231"/>
     <mergeCell ref="B248:G248"/>
     <mergeCell ref="B265:G265"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B180:G180"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B81:G81"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -18150,8 +18158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -18169,14 +18177,14 @@
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
         <v>CREATE TABLE `ord_order` (</v>
@@ -18404,14 +18412,14 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>185</v>
+        <v>968</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -18419,7 +18427,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="1" t="str">
         <f t="shared" ref="H13:H30" si="2">CONCATENATE("`",A13,"` ",C13," DEFAULT NULL COMMENT ","'",B13,"',")</f>
-        <v>`sor_time` int(11) DEFAULT NULL COMMENT '分拣时间',</v>
+        <v>`sor_time` datetime DEFAULT NULL COMMENT '分拣时间',</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1">
@@ -18430,7 +18438,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>185</v>
+        <v>968</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -18438,7 +18446,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`pickup_time` int(11) DEFAULT NULL COMMENT '取货时间',</v>
+        <v>`pickup_time` datetime DEFAULT NULL COMMENT '取货时间',</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1">
@@ -18449,7 +18457,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>185</v>
+        <v>968</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -18457,7 +18465,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`finsh_time` int(11) DEFAULT NULL COMMENT '送达时间',</v>
+        <v>`finsh_time` datetime DEFAULT NULL COMMENT '送达时间',</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1">
@@ -18468,7 +18476,7 @@
         <v>80</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>185</v>
+        <v>968</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -18476,7 +18484,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`close_time` int(11) DEFAULT NULL COMMENT '取消时间',</v>
+        <v>`close_time` datetime DEFAULT NULL COMMENT '取消时间',</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="16">
@@ -18526,7 +18534,7 @@
         <v>130</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -18534,7 +18542,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>`order_time` int(11) DEFAULT NULL COMMENT '下单时间',</v>
+        <v>`order_time` datetime DEFAULT NULL COMMENT '下单时间',</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
@@ -18563,7 +18571,7 @@
         <v>133</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -18571,7 +18579,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>`pay_time` int(11) DEFAULT NULL COMMENT '支付时间',</v>
+        <v>`pay_time` datetime DEFAULT NULL COMMENT '支付时间',</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -18600,7 +18608,7 @@
         <v>135</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -18610,7 +18618,7 @@
       </c>
       <c r="H20" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>`autoclose_time` int(11) DEFAULT NULL COMMENT '预计自动关闭时间',</v>
+        <v>`autoclose_time` datetime DEFAULT NULL COMMENT '预计自动关闭时间',</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
@@ -18836,7 +18844,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -18844,7 +18852,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`expect_time` int(11) DEFAULT NULL COMMENT '顾客期望送达时间',</v>
+        <v>`expect_time` datetime DEFAULT NULL COMMENT '顾客期望送达时间',</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="1" customFormat="1">
@@ -18934,14 +18942,14 @@
       <c r="A35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="86"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A35,"` (")</f>
         <v>CREATE TABLE `ord_pay` (</v>
@@ -19239,87 +19247,87 @@
       <c r="Y43" s="24"/>
       <c r="Z43" s="24"/>
     </row>
-    <row r="44" spans="1:26" s="95" customFormat="1" ht="16">
-      <c r="A44" s="90" t="s">
+    <row r="44" spans="1:26" s="81" customFormat="1" ht="16">
+      <c r="A44" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="91" t="s">
+      <c r="F44" s="76"/>
+      <c r="G44" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="93" t="str">
+      <c r="H44" s="79" t="str">
         <f t="shared" si="4"/>
         <v>`pay_mode` int(2) DEFAULT NULL COMMENT '支付方式 ',</v>
       </c>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
-      <c r="T44" s="94"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="94"/>
-      <c r="W44" s="94"/>
-      <c r="X44" s="94"/>
-      <c r="Y44" s="94"/>
-      <c r="Z44" s="94"/>
-    </row>
-    <row r="45" spans="1:26" s="95" customFormat="1" ht="16">
-      <c r="A45" s="90" t="s">
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="80"/>
+      <c r="W44" s="80"/>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="80"/>
+      <c r="Z44" s="80"/>
+    </row>
+    <row r="45" spans="1:26" s="81" customFormat="1" ht="16">
+      <c r="A45" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90" t="s">
+      <c r="D45" s="76"/>
+      <c r="E45" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90" t="s">
+      <c r="F45" s="76"/>
+      <c r="G45" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="H45" s="93" t="str">
+      <c r="H45" s="79" t="str">
         <f t="shared" si="4"/>
         <v>`pay_channel` int(2) DEFAULT NULL COMMENT '支付渠道',</v>
       </c>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
-      <c r="K45" s="94"/>
-      <c r="L45" s="94"/>
-      <c r="M45" s="94"/>
-      <c r="N45" s="94"/>
-      <c r="O45" s="94"/>
-      <c r="P45" s="94"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="94"/>
-      <c r="S45" s="94"/>
-      <c r="T45" s="94"/>
-      <c r="U45" s="94"/>
-      <c r="V45" s="94"/>
-      <c r="W45" s="94"/>
-      <c r="X45" s="94"/>
-      <c r="Y45" s="94"/>
-      <c r="Z45" s="94"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
     </row>
     <row r="46" spans="1:26" ht="16">
       <c r="A46" s="25" t="s">
@@ -19444,7 +19452,7 @@
         <v>220</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
@@ -19452,7 +19460,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>`create_time` int(11) DEFAULT NULL COMMENT '发起支付时间',</v>
+        <v>`create_time` datetime DEFAULT NULL COMMENT '发起支付时间',</v>
       </c>
       <c r="I49" s="36"/>
       <c r="J49" s="36"/>
@@ -19481,7 +19489,7 @@
         <v>221</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
@@ -19489,7 +19497,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>`finish_time` int(11) DEFAULT NULL COMMENT '完成支付时间',</v>
+        <v>`finish_time` datetime DEFAULT NULL COMMENT '完成支付时间',</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36"/>
@@ -19518,7 +19526,7 @@
         <v>223</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
@@ -19526,7 +19534,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="36" t="str">
         <f t="shared" si="4"/>
-        <v>`close_time` int(11) DEFAULT NULL COMMENT '支付关闭时间',</v>
+        <v>`close_time` datetime DEFAULT NULL COMMENT '支付关闭时间',</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -19610,14 +19618,14 @@
       <c r="A56" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="86"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="93"/>
       <c r="H56" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A56,"` (")</f>
         <v>CREATE TABLE `ord_activity_price` (</v>
@@ -19757,7 +19765,7 @@
         <v>57</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>185</v>
+        <v>968</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -19765,7 +19773,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>`start_time` int(11) DEFAULT NULL COMMENT '开始时间',</v>
+        <v>`start_time` datetime DEFAULT NULL COMMENT '开始时间',</v>
       </c>
     </row>
     <row r="64" spans="1:26" s="1" customFormat="1">
@@ -19776,7 +19784,7 @@
         <v>59</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -19784,7 +19792,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>`end_time` int(11) DEFAULT NULL COMMENT '结束时间',</v>
+        <v>`end_time` datetime DEFAULT NULL COMMENT '结束时间',</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1">
@@ -19832,8 +19840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -19847,14 +19855,14 @@
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
         <v>CREATE TABLE `addr_edifice` (</v>
@@ -20088,7 +20096,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -20096,7 +20104,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="1" t="str">
         <f t="shared" ref="H13:H17" si="1">CONCATENATE("`",A13,"` ",C13," DEFAULT NULL COMMENT ","'",B13,"',")</f>
-        <v>`join_time` int(11) DEFAULT NULL COMMENT '入驻时间',</v>
+        <v>`join_time` datetime DEFAULT NULL COMMENT '入驻时间',</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1">
@@ -20107,7 +20115,7 @@
         <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -20115,7 +20123,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>`leave_time` int(11) DEFAULT NULL COMMENT '解除时间',</v>
+        <v>`leave_time` datetime DEFAULT NULL COMMENT '解除时间',</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1">
@@ -20126,7 +20134,7 @@
         <v>954</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -20134,7 +20142,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="1" t="str">
         <f t="shared" ref="H15:H16" si="2">CONCATENATE("`",A15,"` ",C15," DEFAULT NULL COMMENT ","'",B15,"',")</f>
-        <v>`start_time` int(11) DEFAULT NULL COMMENT '营业开始时间',</v>
+        <v>`start_time` datetime DEFAULT NULL COMMENT '营业开始时间',</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1">
@@ -20145,7 +20153,7 @@
         <v>955</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -20153,7 +20161,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>`end_time` int(11) DEFAULT NULL COMMENT '营业结束时间',</v>
+        <v>`end_time` datetime DEFAULT NULL COMMENT '营业结束时间',</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1">
@@ -20205,14 +20213,14 @@
       <c r="A21" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="85" t="s">
         <v>934</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A21,"` (")</f>
         <v>CREATE TABLE `addr_edifice_group` (</v>
@@ -20413,7 +20421,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -20421,7 +20429,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>`create_time` int(11) DEFAULT NULL COMMENT '创建时间',</v>
+        <v>`create_time` datetime DEFAULT NULL COMMENT '创建时间',</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1">
@@ -20432,7 +20440,7 @@
         <v>108</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -20440,7 +20448,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>`end_time` int(11) DEFAULT NULL COMMENT '解除时间',</v>
+        <v>`end_time` datetime DEFAULT NULL COMMENT '解除时间',</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1">
@@ -20502,8 +20510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -20521,14 +20529,14 @@
       <c r="A1" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="94" t="s">
         <v>904</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="1" t="str">
         <f>CONCATENATE("CREATE TABLE `",A1,"` (")</f>
         <v>CREATE TABLE `meb_opinion` (</v>
@@ -20710,7 +20718,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>968</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -20718,7 +20726,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>`submit_time` int(11) DEFAULT NULL COMMENT '提交时间',</v>
+        <v>`submit_time` datetime DEFAULT NULL COMMENT '提交时间',</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1">
@@ -20729,7 +20737,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>185</v>
+        <v>969</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -20737,7 +20745,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>`handle_time` int(11) DEFAULT NULL COMMENT '处理时间',</v>
+        <v>`handle_time` idatetime DEFAULT NULL COMMENT '处理时间',</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1">
@@ -20883,14 +20891,14 @@
       <c r="A21" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="88" t="s">
         <v>913</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="75" t="str">
         <f>CONCATENATE("CREATE TABLE `",A21,"` (")</f>
         <v>CREATE TABLE `meb_opinion_saleafteropr` (</v>
@@ -21114,7 +21122,7 @@
         <v>918</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
@@ -21122,7 +21130,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>`create_time` int(11) DEFAULT NULL COMMENT '操作时间',</v>
+        <v>`create_time` datetime DEFAULT NULL COMMENT '操作时间',</v>
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
